--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F2-F2rl2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F2-F2rl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6740386666666667</v>
+        <v>0.754521</v>
       </c>
       <c r="H2">
-        <v>2.022116</v>
+        <v>2.263563</v>
       </c>
       <c r="I2">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="J2">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1496963333333333</v>
+        <v>0.3700743333333333</v>
       </c>
       <c r="N2">
-        <v>0.449089</v>
+        <v>1.110223</v>
       </c>
       <c r="O2">
-        <v>0.06088257631114946</v>
+        <v>0.1108002562864021</v>
       </c>
       <c r="P2">
-        <v>0.06088257631114945</v>
+        <v>0.1108002562864021</v>
       </c>
       <c r="Q2">
-        <v>0.1009011169248889</v>
+        <v>0.279228856061</v>
       </c>
       <c r="R2">
-        <v>0.908110052324</v>
+        <v>2.513059704549</v>
       </c>
       <c r="S2">
-        <v>0.01861983517482332</v>
+        <v>0.0306739820753358</v>
       </c>
       <c r="T2">
-        <v>0.01861983517482332</v>
+        <v>0.0306739820753358</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6740386666666667</v>
+        <v>0.754521</v>
       </c>
       <c r="H3">
-        <v>2.022116</v>
+        <v>2.263563</v>
       </c>
       <c r="I3">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="J3">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3700743333333333</v>
+        <v>0.8984456666666668</v>
       </c>
       <c r="N3">
-        <v>1.110223</v>
+        <v>2.695337</v>
       </c>
       <c r="O3">
-        <v>0.150511895236564</v>
+        <v>0.2689946347519571</v>
       </c>
       <c r="P3">
-        <v>0.1505118952365639</v>
+        <v>0.2689946347519571</v>
       </c>
       <c r="Q3">
-        <v>0.2494444102075556</v>
+        <v>0.6778961228590001</v>
       </c>
       <c r="R3">
-        <v>2.244999691868</v>
+        <v>6.101065105731001</v>
       </c>
       <c r="S3">
-        <v>0.04603134182154955</v>
+        <v>0.07446856967022784</v>
       </c>
       <c r="T3">
-        <v>0.04603134182154955</v>
+        <v>0.07446856967022784</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6740386666666667</v>
+        <v>0.754521</v>
       </c>
       <c r="H4">
-        <v>2.022116</v>
+        <v>2.263563</v>
       </c>
       <c r="I4">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="J4">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3612916666666666</v>
+        <v>2.071493333333333</v>
       </c>
       <c r="N4">
-        <v>1.083875</v>
+        <v>6.21448</v>
       </c>
       <c r="O4">
-        <v>0.1469399214838197</v>
+        <v>0.6202051089616408</v>
       </c>
       <c r="P4">
-        <v>0.1469399214838197</v>
+        <v>0.6202051089616408</v>
       </c>
       <c r="Q4">
-        <v>0.2435245532777777</v>
+        <v>1.56298522136</v>
       </c>
       <c r="R4">
-        <v>2.1917209795</v>
+        <v>14.06686699224</v>
       </c>
       <c r="S4">
-        <v>0.04493891823249205</v>
+        <v>0.1716978013674125</v>
       </c>
       <c r="T4">
-        <v>0.04493891823249205</v>
+        <v>0.1716978013674125</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6740386666666667</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H5">
-        <v>2.022116</v>
+        <v>2.919578</v>
       </c>
       <c r="I5">
-        <v>0.3058319194585966</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="J5">
-        <v>0.3058319194585966</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.577709</v>
+        <v>0.3700743333333333</v>
       </c>
       <c r="N5">
-        <v>4.733127</v>
+        <v>1.110223</v>
       </c>
       <c r="O5">
-        <v>0.641665606968467</v>
+        <v>0.1108002562864021</v>
       </c>
       <c r="P5">
-        <v>0.6416656069684669</v>
+        <v>0.1108002562864021</v>
       </c>
       <c r="Q5">
-        <v>1.063436870748</v>
+        <v>0.3601536273215556</v>
       </c>
       <c r="R5">
-        <v>9.570931836731999</v>
+        <v>3.241382645894</v>
       </c>
       <c r="S5">
-        <v>0.1962418242297317</v>
+        <v>0.0395637688191337</v>
       </c>
       <c r="T5">
-        <v>0.1962418242297317</v>
+        <v>0.0395637688191337</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9731926666666668</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H6">
         <v>2.919578</v>
       </c>
       <c r="I6">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="J6">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1496963333333333</v>
+        <v>0.8984456666666668</v>
       </c>
       <c r="N6">
-        <v>0.449089</v>
+        <v>2.695337</v>
       </c>
       <c r="O6">
-        <v>0.06088257631114946</v>
+        <v>0.2689946347519571</v>
       </c>
       <c r="P6">
-        <v>0.06088257631114945</v>
+        <v>0.2689946347519571</v>
       </c>
       <c r="Q6">
-        <v>0.1456833738268889</v>
+        <v>0.8743607341984446</v>
       </c>
       <c r="R6">
-        <v>1.311150364442</v>
+        <v>7.869246607786001</v>
       </c>
       <c r="S6">
-        <v>0.02688375006183638</v>
+        <v>0.09605069428183109</v>
       </c>
       <c r="T6">
-        <v>0.02688375006183638</v>
+        <v>0.09605069428183109</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,51 +847,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9731926666666668</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H7">
         <v>2.919578</v>
       </c>
       <c r="I7">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="J7">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3700743333333333</v>
+        <v>2.071493333333333</v>
       </c>
       <c r="N7">
-        <v>1.110223</v>
+        <v>6.21448</v>
       </c>
       <c r="O7">
-        <v>0.150511895236564</v>
+        <v>0.6202051089616408</v>
       </c>
       <c r="P7">
-        <v>0.1505118952365639</v>
+        <v>0.6202051089616408</v>
       </c>
       <c r="Q7">
-        <v>0.3601536273215556</v>
+        <v>2.015962121048889</v>
       </c>
       <c r="R7">
-        <v>3.241382645894</v>
+        <v>18.14365908944</v>
       </c>
       <c r="S7">
-        <v>0.06646111938814392</v>
+        <v>0.2214584367745308</v>
       </c>
       <c r="T7">
-        <v>0.06646111938814392</v>
+        <v>0.2214584367745308</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9731926666666668</v>
+        <v>0.7824410000000001</v>
       </c>
       <c r="H8">
-        <v>2.919578</v>
+        <v>2.347323</v>
       </c>
       <c r="I8">
-        <v>0.4415672215387696</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="J8">
-        <v>0.4415672215387696</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.3612916666666666</v>
+        <v>0.3700743333333333</v>
       </c>
       <c r="N8">
-        <v>1.083875</v>
+        <v>1.110223</v>
       </c>
       <c r="O8">
-        <v>0.1469399214838197</v>
+        <v>0.1108002562864021</v>
       </c>
       <c r="P8">
-        <v>0.1469399214838197</v>
+        <v>0.1108002562864021</v>
       </c>
       <c r="Q8">
-        <v>0.3516064005277778</v>
+        <v>0.2895613314476667</v>
       </c>
       <c r="R8">
-        <v>3.16445760475</v>
+        <v>2.606051983029</v>
       </c>
       <c r="S8">
-        <v>0.06488385286273522</v>
+        <v>0.03180903011182964</v>
       </c>
       <c r="T8">
-        <v>0.06488385286273522</v>
+        <v>0.03180903011182964</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9731926666666668</v>
+        <v>0.7824410000000001</v>
       </c>
       <c r="H9">
-        <v>2.919578</v>
+        <v>2.347323</v>
       </c>
       <c r="I9">
-        <v>0.4415672215387696</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="J9">
-        <v>0.4415672215387696</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.577709</v>
+        <v>0.8984456666666668</v>
       </c>
       <c r="N9">
-        <v>4.733127</v>
+        <v>2.695337</v>
       </c>
       <c r="O9">
-        <v>0.641665606968467</v>
+        <v>0.2689946347519571</v>
       </c>
       <c r="P9">
-        <v>0.6416656069684669</v>
+        <v>0.2689946347519571</v>
       </c>
       <c r="Q9">
-        <v>1.535414828934</v>
+        <v>0.7029807258723335</v>
       </c>
       <c r="R9">
-        <v>13.818733460406</v>
+        <v>6.326826532851001</v>
       </c>
       <c r="S9">
-        <v>0.2833384992260541</v>
+        <v>0.07722417549855172</v>
       </c>
       <c r="T9">
-        <v>0.2833384992260541</v>
+        <v>0.07722417549855173</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.508125</v>
+        <v>0.7824410000000001</v>
       </c>
       <c r="H10">
-        <v>1.524375</v>
+        <v>2.347323</v>
       </c>
       <c r="I10">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="J10">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1496963333333333</v>
+        <v>2.071493333333333</v>
       </c>
       <c r="N10">
-        <v>0.449089</v>
+        <v>6.21448</v>
       </c>
       <c r="O10">
-        <v>0.06088257631114946</v>
+        <v>0.6202051089616408</v>
       </c>
       <c r="P10">
-        <v>0.06088257631114945</v>
+        <v>0.6202051089616408</v>
       </c>
       <c r="Q10">
-        <v>0.07606444937500001</v>
+        <v>1.620821315226667</v>
       </c>
       <c r="R10">
-        <v>0.6845800443750001</v>
+        <v>14.58739183704</v>
       </c>
       <c r="S10">
-        <v>0.01403658902091735</v>
+        <v>0.1780512396602872</v>
       </c>
       <c r="T10">
-        <v>0.01403658902091735</v>
+        <v>0.1780512396602872</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.508125</v>
+        <v>0.2153186666666667</v>
       </c>
       <c r="H11">
-        <v>1.524375</v>
+        <v>0.645956</v>
       </c>
       <c r="I11">
-        <v>0.2305518240420917</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="J11">
-        <v>0.2305518240420917</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,27 +1119,27 @@
         <v>1.110223</v>
       </c>
       <c r="O11">
-        <v>0.150511895236564</v>
+        <v>0.1108002562864021</v>
       </c>
       <c r="P11">
-        <v>0.1505118952365639</v>
+        <v>0.1108002562864021</v>
       </c>
       <c r="Q11">
-        <v>0.188044020625</v>
+        <v>0.07968391202088888</v>
       </c>
       <c r="R11">
-        <v>1.692396185625</v>
+        <v>0.7171552081879999</v>
       </c>
       <c r="S11">
-        <v>0.03470079198682203</v>
+        <v>0.00875347528010292</v>
       </c>
       <c r="T11">
-        <v>0.03470079198682203</v>
+        <v>0.00875347528010292</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.508125</v>
+        <v>0.2153186666666667</v>
       </c>
       <c r="H12">
-        <v>1.524375</v>
+        <v>0.645956</v>
       </c>
       <c r="I12">
-        <v>0.2305518240420917</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="J12">
-        <v>0.2305518240420917</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3612916666666666</v>
+        <v>0.8984456666666668</v>
       </c>
       <c r="N12">
-        <v>1.083875</v>
+        <v>2.695337</v>
       </c>
       <c r="O12">
-        <v>0.1469399214838197</v>
+        <v>0.2689946347519571</v>
       </c>
       <c r="P12">
-        <v>0.1469399214838197</v>
+        <v>0.2689946347519571</v>
       </c>
       <c r="Q12">
-        <v>0.183581328125</v>
+        <v>0.1934521230191111</v>
       </c>
       <c r="R12">
-        <v>1.652231953125</v>
+        <v>1.741069107172</v>
       </c>
       <c r="S12">
-        <v>0.03387726692269637</v>
+        <v>0.02125119530134646</v>
       </c>
       <c r="T12">
-        <v>0.03387726692269636</v>
+        <v>0.02125119530134646</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.508125</v>
+        <v>0.2153186666666667</v>
       </c>
       <c r="H13">
-        <v>1.524375</v>
+        <v>0.645956</v>
       </c>
       <c r="I13">
-        <v>0.2305518240420917</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="J13">
-        <v>0.2305518240420917</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.577709</v>
+        <v>2.071493333333333</v>
       </c>
       <c r="N13">
-        <v>4.733127</v>
+        <v>6.21448</v>
       </c>
       <c r="O13">
-        <v>0.641665606968467</v>
+        <v>0.6202051089616408</v>
       </c>
       <c r="P13">
-        <v>0.6416656069684669</v>
+        <v>0.6202051089616408</v>
       </c>
       <c r="Q13">
-        <v>0.801673385625</v>
+        <v>0.4460311825422222</v>
       </c>
       <c r="R13">
-        <v>7.215060470625</v>
+        <v>4.01428064288</v>
       </c>
       <c r="S13">
-        <v>0.1479371761116559</v>
+        <v>0.04899763115941031</v>
       </c>
       <c r="T13">
-        <v>0.1479371761116559</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.048595</v>
-      </c>
-      <c r="H14">
-        <v>0.145785</v>
-      </c>
-      <c r="I14">
-        <v>0.02204903496054208</v>
-      </c>
-      <c r="J14">
-        <v>0.02204903496054208</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.1496963333333333</v>
-      </c>
-      <c r="N14">
-        <v>0.449089</v>
-      </c>
-      <c r="O14">
-        <v>0.06088257631114946</v>
-      </c>
-      <c r="P14">
-        <v>0.06088257631114945</v>
-      </c>
-      <c r="Q14">
-        <v>0.007274493318333334</v>
-      </c>
-      <c r="R14">
-        <v>0.06547043986500001</v>
-      </c>
-      <c r="S14">
-        <v>0.001342402053572405</v>
-      </c>
-      <c r="T14">
-        <v>0.001342402053572405</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.048595</v>
-      </c>
-      <c r="H15">
-        <v>0.145785</v>
-      </c>
-      <c r="I15">
-        <v>0.02204903496054208</v>
-      </c>
-      <c r="J15">
-        <v>0.02204903496054208</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.3700743333333333</v>
-      </c>
-      <c r="N15">
-        <v>1.110223</v>
-      </c>
-      <c r="O15">
-        <v>0.150511895236564</v>
-      </c>
-      <c r="P15">
-        <v>0.1505118952365639</v>
-      </c>
-      <c r="Q15">
-        <v>0.01798376222833333</v>
-      </c>
-      <c r="R15">
-        <v>0.161853860055</v>
-      </c>
-      <c r="S15">
-        <v>0.003318642040048445</v>
-      </c>
-      <c r="T15">
-        <v>0.003318642040048445</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.048595</v>
-      </c>
-      <c r="H16">
-        <v>0.145785</v>
-      </c>
-      <c r="I16">
-        <v>0.02204903496054208</v>
-      </c>
-      <c r="J16">
-        <v>0.02204903496054208</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.3612916666666666</v>
-      </c>
-      <c r="N16">
-        <v>1.083875</v>
-      </c>
-      <c r="O16">
-        <v>0.1469399214838197</v>
-      </c>
-      <c r="P16">
-        <v>0.1469399214838197</v>
-      </c>
-      <c r="Q16">
-        <v>0.01755696854166667</v>
-      </c>
-      <c r="R16">
-        <v>0.158012716875</v>
-      </c>
-      <c r="S16">
-        <v>0.003239883465896048</v>
-      </c>
-      <c r="T16">
-        <v>0.003239883465896048</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.048595</v>
-      </c>
-      <c r="H17">
-        <v>0.145785</v>
-      </c>
-      <c r="I17">
-        <v>0.02204903496054208</v>
-      </c>
-      <c r="J17">
-        <v>0.02204903496054208</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1.577709</v>
-      </c>
-      <c r="N17">
-        <v>4.733127</v>
-      </c>
-      <c r="O17">
-        <v>0.641665606968467</v>
-      </c>
-      <c r="P17">
-        <v>0.6416656069684669</v>
-      </c>
-      <c r="Q17">
-        <v>0.07666876885499999</v>
-      </c>
-      <c r="R17">
-        <v>0.690018919695</v>
-      </c>
-      <c r="S17">
-        <v>0.01414810740102518</v>
-      </c>
-      <c r="T17">
-        <v>0.01414810740102518</v>
+        <v>0.04899763115941031</v>
       </c>
     </row>
   </sheetData>
